--- a/medicine/Psychotrope/Cava_(DO)/Cava_(DO).xlsx
+++ b/medicine/Psychotrope/Cava_(DO)/Cava_(DO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cava (terme qui signifie cave en catalan) est un vin mousseux produit en Catalogne mais aussi à Requena et Cheste (province de Valence), Haro et Grávalos (La Rioja), Mendavia (Navarre), en Estrémadure, en Aragon et à Aranda de Duero (province de Burgos). Élaboré selon la méthode traditionnelle, le cava présente des caractéristiques gustatives proches de celles des vins de Champagne.
 Le terme de DOP signifie Denominación de Origen Protegida (es) (dénomination d'origine protégée), dans le cadre de la réglementation espagnole.
-L'Union européenne reconnaît le cava en tant qu'AOP Cava, et sa production est contrôlée par le Conseil régulateur du cava (Consell Regulador del Cava)[1].
+L'Union européenne reconnaît le cava en tant qu'AOP Cava, et sa production est contrôlée par le Conseil régulateur du cava (Consell Regulador del Cava).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Institut Agrícola Català de Sant Isidre commença à utiliser la méthode traditionnelle sur des cépages blancs originaires du Penedès dans le dernier quart du XIXe siècle. La première bouteille de ce vin effervescent fut produite à la masia de Can Codorníu, à Sant Sadurní d'Anoia, par Josep Raventós i Fatjó en 1872.
 En 1887 le phylloxéra arriva au Penedès, détruisant les cultures de raisin, mais ceci impulsa une rénovation des variétés utilisées, avec les cépages blancs de qualité remplaçant les noirs.
@@ -546,19 +560,91 @@
           <t>Méthode de production traditionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthode de production traditionnelle est la même que celle utilisée pour l'élaboration du champagne, la méthode champenoise.
-Variétés de raisin utilisées
-Les variétés principales utilisées dans la production du cava sont le Macabeu, la Parellada et le Xarel·lo. Chacune apporte au produit final des caractéristiques qui se complètent :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cava_(DO)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cava_(DO)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Méthode de production traditionnelle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variétés de raisin utilisées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variétés principales utilisées dans la production du cava sont le Macabeu, la Parellada et le Xarel·lo. Chacune apporte au produit final des caractéristiques qui se complètent :
 Le macabeu apporte la douceur et le parfum,
 la parellada la finesse, la fraîcheur et l'arôme et
 le xarel·lo le corps et la structure.
 Les variétés secondaires sont le chardonnay et le malvoisie.
 Les variétés noires comme le grenache, le monestrell, le pinot noir et le trepat sont utilisées dans la production du cava rosé.
 Le vin de base, qui est le vin de base pour la seconde fermentation, est élaboré à partir des variétés citées ci-dessus. Le processus de vinification est le même : après un peu de temps passé dans le pressoir à basse pression, le moût est clarifié pour éliminer la terre et les feuilles et ensuite laissé fermenter. L'assemblage est fait une fois le vin de base obtenu.
-Seconde fermentation
-La méthode traditionnelle proprement dite commence avec le tirage, c'est-à-dire la mise en bouteille en y ajoutant la liqueur de tirage ; c'est donc un mélange de vin, de sucre et de levure qui, en fermentant, produit le dioxyde de carbone et l'arôme caractéristique du cava.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cava_(DO)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cava_(DO)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Méthode de production traditionnelle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Seconde fermentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La méthode traditionnelle proprement dite commence avec le tirage, c'est-à-dire la mise en bouteille en y ajoutant la liqueur de tirage ; c'est donc un mélange de vin, de sucre et de levure qui, en fermentant, produit le dioxyde de carbone et l'arôme caractéristique du cava.
 Les bouteilles sont laissées au repos en position horizontale dans des caves noires et tranquilles, à une température constante de 15ºC. La durée de repos est de neuf mois minimum.
 Ensuite vient le remogut : pour éliminer les impuretés, les bouteilles sont mises sur des "pupitres" inclinés afin de faire tomber les sédiments jusqu'aux cols des bouteilles. Autrefois, le processus se faisait à la main, en tournant quotidiennement chaque bouteille d'un huitième de tour et en augmentant son inclinaison.
 Quand la bouteille est en punta, totalement inversée, commence le processus du dégorgement (degollament). Traditionnellement, ceci se faisait en débouchant la bouteille et en laissant sortir les impuretés, mais de nos jours cette opération est faite en congelant le col et en sortant le bloc de glace ainsi produit, qui contient les impuretés.
@@ -568,31 +654,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Cava_(DO)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cava_(DO)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Types de cava</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le type de cava est déterminé par la quantité de sucre dans la liqueur d'expédition.
 Brut nature : sans sucre ajouté
